--- a/downloaded_files/EPES125_Lecture-35327.xlsx
+++ b/downloaded_files/EPES125_Lecture-35327.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Rovana Emad Samir Micheal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ريتاج حسين محمود حسين عمران</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Retaj hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1230195</x:t>
@@ -533,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1436,7 +1427,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.7052414005</x:v>
+        <x:v>45912.6965143866</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1468,7 +1459,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6965143866</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1500,7 +1491,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45906.6654171296</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1532,7 +1523,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6654171296</x:v>
+        <x:v>45907.4209761921</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1564,7 +1555,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4209761921</x:v>
+        <x:v>45907.4202117245</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1592,11 +1583,9 @@
       <x:c r="C23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45907.4202117245</x:v>
+        <x:v>45912.6685261227</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1619,14 +1608,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45912.6685261227</x:v>
+        <x:v>45907.414253125</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1658,7 +1649,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.414253125</x:v>
+        <x:v>45906.6644033912</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1690,7 +1681,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6644033912</x:v>
+        <x:v>45912.6921194792</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1722,7 +1713,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.6921194792</x:v>
+        <x:v>45906.6647810185</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1754,7 +1745,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647810185</x:v>
+        <x:v>45912.672637037</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1786,7 +1777,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.672637037</x:v>
+        <x:v>45907.4200689468</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1814,11 +1805,9 @@
       <x:c r="C30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45907.4200689468</x:v>
+        <x:v>45912.6671443634</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1841,14 +1830,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45912.6671443634</x:v>
+        <x:v>45906.6646315972</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1880,7 +1871,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6646315972</x:v>
+        <x:v>45907.420471412</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1908,11 +1899,9 @@
       <x:c r="C33" s="2" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
+      <x:c r="D33" s="2" t="s"/>
       <x:c r="E33" s="3">
-        <x:v>45907.420471412</x:v>
+        <x:v>45912.6643030903</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1935,14 +1924,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s"/>
       <x:c r="E34" s="3">
-        <x:v>45912.6643030903</x:v>
+        <x:v>45912.6689260764</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1974,7 +1965,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.6689260764</x:v>
+        <x:v>45907.4200795949</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2006,7 +1997,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4200795949</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2038,7 +2029,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4206368403</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2070,7 +2061,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2102,7 +2093,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45907.4201351852</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2134,7 +2125,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4201351852</x:v>
+        <x:v>45906.6654133102</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2166,7 +2157,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6654133102</x:v>
+        <x:v>45907.4210460995</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2198,7 +2189,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4210460995</x:v>
+        <x:v>45912.6811705208</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2230,7 +2221,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45912.6811705208</x:v>
+        <x:v>45907.4207256597</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2262,7 +2253,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4207256597</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2279,38 +2270,6 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45907.4205376157</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES125_Lecture-35327.xlsx
+++ b/downloaded_files/EPES125_Lecture-35327.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -391,15 +391,6 @@
   </x:si>
   <x:si>
     <x:t>YASSEN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيى هلال عبدالسلام الانور سعد محمد الحلو</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yahia helal</x:t>
   </x:si>
   <x:si>
     <x:t>1230326</x:t>
@@ -524,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2221,7 +2212,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4207256597</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2238,38 +2229,6 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45907.4205376157</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES125_Lecture-35327.xlsx
+++ b/downloaded_files/EPES125_Lecture-35327.xlsx
@@ -75,7 +75,7 @@
     <x:t>احمد محمد فاروق محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Farouk Mohamed  </x:t>
   </x:si>
   <x:si>
     <x:t>1220003</x:t>
@@ -93,7 +93,7 @@
     <x:t>احمد يحى سعد السيد نافع</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
+    <x:t>Ahmed Yehya Saad Elsayed Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>1230157</x:t>

--- a/downloaded_files/EPES125_Lecture-35327.xlsx
+++ b/downloaded_files/EPES125_Lecture-35327.xlsx
@@ -201,7 +201,7 @@
     <x:t>عبدالرحمن سامح عبد العظيم محمد على</x:t>
   </x:si>
   <x:si>
-    <x:t>abdelrahman sameh abdelazeem</x:t>
+    <x:t>ABDELRAHMAN SAMEH ABDELAZEEM MOHAMED ALY</x:t>
   </x:si>
   <x:si>
     <x:t>1230058</x:t>
@@ -243,7 +243,7 @@
     <x:t>عبدالرحمن مصطفى محمد رضوان احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
+    <x:t>ABDELRAHMAN MOSTAFA MOHAMMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1230207</x:t>
@@ -354,7 +354,7 @@
     <x:t>مصطفى ايهاب حلمي محمد رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>Mostafa Ehab Helmy Mohamed Radwan</x:t>
+    <x:t>MOSTAFA EHAB HELMY MOHAMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1230260</x:t>

--- a/downloaded_files/EPES125_Lecture-35327.xlsx
+++ b/downloaded_files/EPES125_Lecture-35327.xlsx
@@ -315,10 +315,10 @@
     <x:t>1230226</x:t>
   </x:si>
   <x:si>
-    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Tarek Abdalla</x:t>
+    <x:t>كريم طارق عبد الله عبد الحليم عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Tarek Abdullah Abdelhalim Abdelmonem</x:t>
   </x:si>
   <x:si>
     <x:t>1220269</x:t>

--- a/downloaded_files/EPES125_Lecture-35327.xlsx
+++ b/downloaded_files/EPES125_Lecture-35327.xlsx
@@ -39,7 +39,7 @@
     <x:t>أحمد محمد سيد صابر محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Sayed Saber</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Sayed Saber Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1230153</x:t>
@@ -129,7 +129,7 @@
     <x:t>بيشوي ماهر فؤاد بدرس بدروس</x:t>
   </x:si>
   <x:si>
-    <x:t>Beshoy Maher Fouad Badras</x:t>
+    <x:t>Beshoy Maher Fouad Badras Badros</x:t>
   </x:si>
   <x:si>
     <x:t>2250008</x:t>
